--- a/doc/数据库表.xlsx
+++ b/doc/数据库表.xlsx
@@ -5,28 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\华行研学\华行研学管理系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\华行研学\华行研学管理系统\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="685"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字典表(dict)" sheetId="6" r:id="rId1"/>
     <sheet name="学生表(student)" sheetId="1" r:id="rId2"/>
-    <sheet name="会员表(member)" sheetId="3" r:id="rId3"/>
-    <sheet name="储蓄卡表(savings)" sheetId="9" r:id="rId4"/>
-    <sheet name="基地表(base)" sheetId="5" r:id="rId5"/>
-    <sheet name="历次活动(activities)" sheetId="2" r:id="rId6"/>
-    <sheet name="基地-活动-学生关系表(b_a_s_relations)" sheetId="4" r:id="rId7"/>
-    <sheet name="学校表(school)" sheetId="7" r:id="rId8"/>
+    <sheet name="学生活动反馈(s_a_message)" sheetId="10" r:id="rId3"/>
+    <sheet name="学员回访(student_ return_visit)" sheetId="11" r:id="rId4"/>
+    <sheet name="会员表(member)" sheetId="3" r:id="rId5"/>
+    <sheet name="储蓄卡表(savings)" sheetId="9" r:id="rId6"/>
+    <sheet name="基地表(base)" sheetId="5" r:id="rId7"/>
+    <sheet name="历次活动(activities)" sheetId="2" r:id="rId8"/>
+    <sheet name="基地-活动-学生关系表(b_a_s_relations)" sheetId="4" r:id="rId9"/>
+    <sheet name="学校表(school)" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="182">
   <si>
     <t>学生id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧急联系人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f_linkman_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧急联系人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second_linkman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,30 +102,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧急联系人2电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人1电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_linkman_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧急联系人3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>third_linkman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧急联系人3电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_linkman_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,6 +543,217 @@
   </si>
   <si>
     <t>逻辑删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲电话电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activities_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activities_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_s_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(自增)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -945,35 +1134,111 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -998,7 +1263,7 @@
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1009,18 +1274,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1031,121 +1296,236 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1157,10 +1537,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1183,90 +1713,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1304,10 +1834,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1315,24 +1845,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1369,46 +1899,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1418,13 +1948,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1446,15 +1976,15 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1462,190 +1992,190 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +2185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1682,111 +2212,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据库表.xlsx
+++ b/doc/数据库表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="685" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="685" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="字典表(dict)" sheetId="6" r:id="rId1"/>
@@ -354,19 +354,346 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>基地id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达目的地时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带队老师id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串，使用“,”分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全老师id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savings_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储蓄卡id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储蓄卡剩余金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bigdecimal(10,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基地id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_name</t>
+    <t>储蓄卡累计金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigdecimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲电话电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activities_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activities_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_s_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(自增)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,386 +701,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基地id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地概述</t>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>base_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达目的地时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带队老师id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_teacher_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串，使用“,”分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>security_teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全老师id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_teacher_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>savings_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储蓄卡id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储蓄卡剩余金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saving_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigdecimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储蓄卡累计金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigdecimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父亲电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴趣爱好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母亲电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母亲电话电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父亲电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他联系人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activities_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activities_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>数据来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回访老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学员反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_s_message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(自增)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_sources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,35 +1134,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1221,18 +1221,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -1252,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1298,83 +1298,83 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -1479,24 +1479,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,13 +1508,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,13 +1563,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,29 +1577,29 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1640,43 +1640,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
         <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1690,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1782,15 +1782,15 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1845,24 +1845,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1910,29 +1910,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -1976,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,10 +2009,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,16 +2083,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,27 +2100,27 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,13 +2128,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,18 +2229,18 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
